--- a/Test Open Xml/testdata/testsetrowvalues_dbl.xlsx
+++ b/Test Open Xml/testdata/testsetrowvalues_dbl.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R9629045bf5454e53"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rde25b3a8bb214965"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -23,9 +23,15 @@
   <x:borders count="1">
     <x:border/>
   </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
   <x:cellXfs count="1">
     <x:xf/>
   </x:cellXfs>
+  <x:cellStyles>
+    <x:cellStyle name="Standard" xfId="0"/>
+  </x:cellStyles>
 </x:styleSheet>
 </file>
 
@@ -33,11 +39,11 @@
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
     <x:row r="2">
-      <x:c r="C2" t="str">
-        <x:v>4.56</x:v>
+      <x:c r="B2" t="n">
+        <x:v>123.00000000</x:v>
       </x:c>
-      <x:c r="B2" t="str">
-        <x:v>123</x:v>
+      <x:c r="C2" t="n">
+        <x:v>4.56000000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Test Open Xml/testdata/testsetrowvalues_dbl.xlsx
+++ b/Test Open Xml/testdata/testsetrowvalues_dbl.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rde25b3a8bb214965"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rbeb55bf429a741e4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Test Open Xml/testdata/testsetrowvalues_dbl.xlsx
+++ b/Test Open Xml/testdata/testsetrowvalues_dbl.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rbeb55bf429a741e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rb7f0b81c1d8e4a1c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Test Open Xml/testdata/testsetrowvalues_dbl.xlsx
+++ b/Test Open Xml/testdata/testsetrowvalues_dbl.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rb7f0b81c1d8e4a1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R84eb2ae73e4a4008"/>
   </x:sheets>
 </x:workbook>
 </file>
